--- a/QuemSouEu/Pontuacoes.xlsx
+++ b/QuemSouEu/Pontuacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,51 +434,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pontuação</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
+          <t>Pontos</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Diego</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>50</v>
+      <c r="B2" t="n">
+        <v>40</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Julia</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/QuemSouEu/Pontuacoes.xlsx
+++ b/QuemSouEu/Pontuacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,36 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Clebinho</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Diego</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/QuemSouEu/Pontuacoes.xlsx
+++ b/QuemSouEu/Pontuacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,31 +458,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Clebinho</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clebinho</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Diego</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
